--- a/samora_worktime.xlsx
+++ b/samora_worktime.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxim\Desktop\Samora\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17ECD311-2174-4EB8-9E5D-12B362143993}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{512D0BAF-EE9A-49EE-AFE7-7B4CDA040250}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0E01D3FF-795A-4136-A3BA-AFAC3F546F52}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
   <si>
     <t>Datum</t>
   </si>
@@ -91,6 +91,24 @@
   </si>
   <si>
     <t>Maximilian</t>
+  </si>
+  <si>
+    <t>Planung/Map</t>
+  </si>
+  <si>
+    <t>Projektzeit gesammt</t>
+  </si>
+  <si>
+    <t>in h</t>
+  </si>
+  <si>
+    <t>Zeichnen/besprechen der Map</t>
+  </si>
+  <si>
+    <t>Planung/Quests</t>
+  </si>
+  <si>
+    <t>Quests planen</t>
   </si>
 </sst>
 </file>
@@ -451,10 +469,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99AEF166-A810-46DB-A43A-FC2746F35161}">
-  <dimension ref="D3:L12"/>
+  <dimension ref="D3:O14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -467,9 +485,10 @@
     <col min="9" max="10" width="11.42578125" style="1"/>
     <col min="11" max="11" width="11.7109375" style="1" customWidth="1"/>
     <col min="12" max="12" width="14.7109375" customWidth="1"/>
+    <col min="14" max="14" width="19.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="4:15" x14ac:dyDescent="0.25">
       <c r="G3" s="1" t="s">
         <v>16</v>
       </c>
@@ -477,7 +496,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D6" s="1" t="s">
         <v>0</v>
       </c>
@@ -502,8 +521,14 @@
       <c r="L6" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="N6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D7" s="2">
         <v>44465</v>
       </c>
@@ -520,11 +545,19 @@
         <v>90</v>
       </c>
       <c r="L7" s="1">
-        <f>K7*G7</f>
+        <f t="shared" ref="L7:L14" si="0">K7*G7</f>
         <v>270</v>
       </c>
-    </row>
-    <row r="8" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="N7">
+        <f>SUM(L:L)</f>
+        <v>1835</v>
+      </c>
+      <c r="O7">
+        <f>N7/60</f>
+        <v>30.583333333333332</v>
+      </c>
+    </row>
+    <row r="8" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D8" s="2">
         <v>44468</v>
       </c>
@@ -541,11 +574,11 @@
         <v>180</v>
       </c>
       <c r="L8" s="1">
-        <f>K8*G8</f>
+        <f t="shared" si="0"/>
         <v>540</v>
       </c>
     </row>
-    <row r="9" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D9" s="2">
         <v>44472</v>
       </c>
@@ -568,11 +601,11 @@
         <v>60</v>
       </c>
       <c r="L9" s="1">
-        <f>K9*G9</f>
+        <f t="shared" si="0"/>
         <v>180</v>
       </c>
     </row>
-    <row r="10" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D10" s="2">
         <v>44476</v>
       </c>
@@ -589,11 +622,11 @@
         <v>60</v>
       </c>
       <c r="L10" s="1">
-        <f>K10*G10</f>
+        <f t="shared" si="0"/>
         <v>180</v>
       </c>
     </row>
-    <row r="11" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D11" s="2">
         <v>44477</v>
       </c>
@@ -610,13 +643,13 @@
         <v>60</v>
       </c>
       <c r="L11" s="1">
-        <f>K11*G11</f>
+        <f t="shared" si="0"/>
         <v>180</v>
       </c>
     </row>
-    <row r="12" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D12" s="2">
-        <v>41192</v>
+        <v>44479</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>14</v>
@@ -640,8 +673,62 @@
         <v>200</v>
       </c>
       <c r="L12" s="1">
-        <f>K12*G12</f>
+        <f t="shared" si="0"/>
         <v>200</v>
+      </c>
+    </row>
+    <row r="13" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D13" s="2">
+        <v>44480</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" s="1">
+        <v>3</v>
+      </c>
+      <c r="I13" s="3">
+        <v>0.81944444444444453</v>
+      </c>
+      <c r="J13" s="3">
+        <v>0.86111111111111116</v>
+      </c>
+      <c r="K13" s="1">
+        <v>60</v>
+      </c>
+      <c r="L13" s="1">
+        <f t="shared" si="0"/>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="14" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D14" s="2">
+        <v>44481</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" s="1">
+        <v>3</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0.85763888888888884</v>
+      </c>
+      <c r="K14" s="1">
+        <v>35</v>
+      </c>
+      <c r="L14" s="1">
+        <f t="shared" si="0"/>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
